--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_07_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_07_end.xlsx
@@ -1152,7 +1152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Croissant"]   Thing's're gettin' kinda weird.
+    <t xml:space="preserve">[name="Croissant"]   Things're gettin' kinda weird.
 </t>
   </si>
   <si>
